--- a/formats/excel/Formats TRA HAD xx.xlsx
+++ b/formats/excel/Formats TRA HAD xx.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="23715" windowHeight="10800"/>
+    <workbookView windowWidth="24240" windowHeight="12855"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>nom</t>
   </si>
@@ -45,7 +45,7 @@
     <t>c</t>
   </si>
   <si>
-    <t>NOSEJHAD</t>
+    <t>NOSEQSEJ</t>
   </si>
   <si>
     <t>N° du séjour HAD</t>
@@ -93,6 +93,9 @@
     <t>Provenance</t>
   </si>
   <si>
+    <t>DTSORT</t>
+  </si>
+  <si>
     <t>Date de sortie du séjour</t>
   </si>
   <si>
@@ -114,6 +117,9 @@
     <t>Date de début de la séquence</t>
   </si>
   <si>
+    <t>DT_FIN_SEQ</t>
+  </si>
+  <si>
     <t>Date de fin de la séquence</t>
   </si>
   <si>
@@ -133,41 +139,378 @@
   </si>
   <si>
     <t>Flag dernière sous-séquence</t>
-  </si>
-  <si>
-    <t>DTSORT</t>
-  </si>
-  <si>
-    <t>DT_FIN_SEQ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -175,25 +518,309 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
+    <cellStyle name="Comma" xfId="46" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -202,7 +829,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -483,24 +1110,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.14" customWidth="1"/>
+    <col min="2" max="2" width="30.7133333333333" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="7.42666666666667" customWidth="1"/>
+    <col min="5" max="5" width="4" customWidth="1"/>
+    <col min="6" max="6" width="4.57333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,7 +1148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -540,7 +1168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -560,7 +1188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -580,7 +1208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -600,7 +1228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -620,7 +1248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -640,7 +1268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -660,7 +1288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -680,7 +1308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -700,12 +1328,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2">
         <v>8</v>
@@ -720,12 +1348,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -740,12 +1368,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -760,12 +1388,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="2">
         <v>8</v>
@@ -780,12 +1408,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2">
         <v>8</v>
@@ -800,12 +1428,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2">
         <v>8</v>
@@ -820,12 +1448,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2">
         <v>8</v>
@@ -840,12 +1468,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -861,30 +1489,39 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>